--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEW_HAMPSHIRE_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEW_HAMPSHIRE_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C26">
@@ -804,7 +804,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C31">
@@ -874,7 +874,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C36">
@@ -905,7 +905,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C38">
@@ -918,7 +918,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C39">
@@ -944,7 +944,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C41">
@@ -996,7 +996,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C45">
@@ -1136,7 +1136,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C55">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C57">
@@ -1333,7 +1333,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C69">
@@ -1346,7 +1346,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C70">
@@ -1379,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="D72">
-        <v>0.09352517985611511</v>
+        <v>0.09352517985611512</v>
       </c>
     </row>
     <row r="73">
@@ -1709,41 +1709,6 @@
       </c>
       <c r="D95">
         <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEW_HAMPSHIRE_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEW_HAMPSHIRE_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Huejúcar</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1121,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1134,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -1147,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Agustín Etla</t>
@@ -1191,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Juan Chilateca</t>
@@ -1204,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -1274,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1287,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -1300,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -1344,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1357,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -1370,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1414,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1427,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1497,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -1510,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1541,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1572,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>González</t>
@@ -1585,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1616,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -1629,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -1642,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1673,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1686,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
